--- a/biology/Zoologie/Allotheria/Allotheria.xlsx
+++ b/biology/Zoologie/Allotheria/Allotheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Allotheria sont une infra-classe de mammifères, aujourd'hui éteinte.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apparus au Trias, ils ont prospéré au cours du Jurassique et leurs derniers représentants se sont éteints au cours du Cénozoïque[1].
-D'après leurs caractéristiques squelettiques, ils occupaient probablement des niches écologiques similaires aux rongeurs euthériens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apparus au Trias, ils ont prospéré au cours du Jurassique et leurs derniers représentants se sont éteints au cours du Cénozoïque.
+D'après leurs caractéristiques squelettiques, ils occupaient probablement des niches écologiques similaires aux rongeurs euthériens.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taxinomie
-Les Allothériens (du grec ancien αλλός « autre, différent » et θήριον « animal sauvage ») ne font partie ni des actuels thériens (marsupiaux et placentaires) ni des actuels monotrèmes mais sont peut-être plus étroitement apparentés à ces derniers[2].
-Ordres
-† Haramiyida
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Allothériens (du grec ancien αλλός « autre, différent » et θήριον « animal sauvage ») ne font partie ni des actuels thériens (marsupiaux et placentaires) ni des actuels monotrèmes mais sont peut-être plus étroitement apparentés à ces derniers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allotheria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allotheria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ordres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>† Haramiyida
 † Multituberculata</t>
         </is>
       </c>
